--- a/TESTING/legendre_out/DATA/p1/a0/p1_rates.xlsx
+++ b/TESTING/legendre_out/DATA/p1/a0/p1_rates.xlsx
@@ -617,7 +617,7 @@
         <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>2.904972378296891e-265</v>
+        <v>1.56845045540436e-265</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>0.06</v>
       </c>
       <c r="C24" t="n">
-        <v>1.305757914994445e-222</v>
+        <v>7.050042827396416e-223</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>5.240315265854699e-192</v>
+        <v>2.829392326046491e-192</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>0.08</v>
       </c>
       <c r="C26" t="n">
-        <v>5.891237458794333e-169</v>
+        <v>3.180910882548996e-169</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>0.09</v>
       </c>
       <c r="C27" t="n">
-        <v>5.917519932720071e-151</v>
+        <v>3.195165576662464e-151</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" t="n">
-        <v>1.700506326239657e-136</v>
+        <v>9.18201336359421e-137</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>0.11</v>
       </c>
       <c r="C29" t="n">
-        <v>1.274818327161274e-124</v>
+        <v>6.883522888340067e-125</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>0.12</v>
       </c>
       <c r="C30" t="n">
-        <v>1.091288199646593e-114</v>
+        <v>5.892533096934832e-115</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>0.13</v>
       </c>
       <c r="C31" t="n">
-        <v>2.970173655497462e-106</v>
+        <v>1.603772713037502e-106</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>0.14</v>
       </c>
       <c r="C32" t="n">
-        <v>5.348287436231382e-99</v>
+        <v>2.887841327313808e-99</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>0.15</v>
       </c>
       <c r="C33" t="n">
-        <v>1.091502518751212e-92</v>
+        <v>5.893601627806694e-93</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>0.16</v>
       </c>
       <c r="C34" t="n">
-        <v>3.783167213572337e-87</v>
+        <v>2.042721823947946e-87</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>0.18</v>
       </c>
       <c r="C35" t="n">
-        <v>7.17884300303997e-78</v>
+        <v>3.876186715972135e-78</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>0.2</v>
       </c>
       <c r="C36" t="n">
-        <v>2.123358733444149e-70</v>
+        <v>1.146494151266776e-70</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>0.25</v>
       </c>
       <c r="C37" t="n">
-        <v>8.297182507864574e-57</v>
+        <v>4.479997314112631e-57</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>0.3</v>
       </c>
       <c r="C38" t="n">
-        <v>1.336046235399429e-47</v>
+        <v>7.213750392475025e-48</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>0.35</v>
       </c>
       <c r="C39" t="n">
-        <v>6.41643912912402e-41</v>
+        <v>3.464307538328817e-41</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>0.4</v>
       </c>
       <c r="C40" t="n">
-        <v>7.925038391374113e-36</v>
+        <v>4.278630249216903e-36</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>0.45</v>
       </c>
       <c r="C41" t="n">
-        <v>8.503391274363826e-32</v>
+        <v>4.590752145370398e-32</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>0.5</v>
       </c>
       <c r="C42" t="n">
-        <v>1.679344782429975e-28</v>
+        <v>9.066317752488081e-29</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>0.6</v>
       </c>
       <c r="C43" t="n">
-        <v>2.331159776215668e-23</v>
+        <v>1.258585094456025e-23</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>0.7</v>
       </c>
       <c r="C44" t="n">
-        <v>1.745951797449688e-19</v>
+        <v>9.426703589427085e-20</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>0.8</v>
       </c>
       <c r="C45" t="n">
-        <v>1.886033140752235e-16</v>
+        <v>1.018318890387792e-16</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>0.9</v>
       </c>
       <c r="C46" t="n">
-        <v>5.15971654453269e-14</v>
+        <v>2.785879063589272e-14</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>5.081818531184874e-12</v>
+        <v>2.743822352787366e-12</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>1.25</v>
       </c>
       <c r="C48" t="n">
-        <v>2.321983171070141e-08</v>
+        <v>1.253706400610929e-08</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>1.5</v>
       </c>
       <c r="C49" t="n">
-        <v>6.887240341574372e-06</v>
+        <v>3.718615117761819e-06</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>1.75</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0004099915608428231</v>
+        <v>0.0002213651962603142</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>0.008837281724341945</v>
+        <v>0.004771456859910801</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>2.5</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6489875120837723</v>
+        <v>0.3503997549335854</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>11.22967240916872</v>
+        <v>6.063032433126999</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.5</v>
       </c>
       <c r="C54" t="n">
-        <v>84.65051964934936</v>
+        <v>45.70338917419514</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>379.0860455667398</v>
+        <v>204.6695357129844</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>2977.832523785852</v>
+        <v>1607.720445086961</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="C57" t="n">
-        <v>11313.67189806997</v>
+        <v>6108.157404421996</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>28477.30844601035</v>
+        <v>15374.56844557216</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>55569.62000193691</v>
+        <v>30001.25528387708</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>9</v>
       </c>
       <c r="C60" t="n">
-        <v>91704.51363561535</v>
+        <v>49509.79880754172</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="C61" t="n">
-        <v>134801.3778550274</v>
+        <v>72776.89912643001</v>
       </c>
     </row>
   </sheetData>

--- a/TESTING/legendre_out/DATA/p1/a0/p1_rates.xlsx
+++ b/TESTING/legendre_out/DATA/p1/a0/p1_rates.xlsx
@@ -617,7 +617,7 @@
         <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>1.56845045540436e-265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>0.06</v>
       </c>
       <c r="C24" t="n">
-        <v>7.050042827396416e-223</v>
+        <v>2.880730302048091e-282</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>2.829392326046491e-192</v>
+        <v>3.452208384016925e-241</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>0.08</v>
       </c>
       <c r="C26" t="n">
-        <v>3.180910882548996e-169</v>
+        <v>2.208489488813234e-210</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>0.09</v>
       </c>
       <c r="C27" t="n">
-        <v>3.195165576662464e-151</v>
+        <v>2.000839893894201e-186</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" t="n">
-        <v>9.18201336359421e-137</v>
+        <v>2.909678405156933e-167</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>0.11</v>
       </c>
       <c r="C29" t="n">
-        <v>6.883522888340067e-125</v>
+        <v>1.378616827409155e-151</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>0.12</v>
       </c>
       <c r="C30" t="n">
-        <v>5.892533096934832e-115</v>
+        <v>1.583836350661099e-138</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>0.13</v>
       </c>
       <c r="C31" t="n">
-        <v>1.603772713037502e-106</v>
+        <v>1.77082338941339e-127</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>0.14</v>
       </c>
       <c r="C32" t="n">
-        <v>2.887841327313808e-99</v>
+        <v>5.199468888754693e-118</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>0.15</v>
       </c>
       <c r="C33" t="n">
-        <v>5.893601627806694e-93</v>
+        <v>8.302974091065118e-110</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>0.16</v>
       </c>
       <c r="C34" t="n">
-        <v>2.042721823947946e-87</v>
+        <v>1.244912134079423e-102</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>0.18</v>
       </c>
       <c r="C35" t="n">
-        <v>3.876186715972135e-78</v>
+        <v>1.121847763123093e-90</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>0.2</v>
       </c>
       <c r="C36" t="n">
-        <v>1.146494151266776e-70</v>
+        <v>4.055127892594582e-81</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>0.25</v>
       </c>
       <c r="C37" t="n">
-        <v>4.479997314112631e-57</v>
+        <v>6.225408165057861e-64</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>0.3</v>
       </c>
       <c r="C38" t="n">
-        <v>7.213750392475025e-48</v>
+        <v>1.707762146979598e-52</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>0.35</v>
       </c>
       <c r="C39" t="n">
-        <v>3.464307538328817e-41</v>
+        <v>2.448602767667152e-44</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>0.4</v>
       </c>
       <c r="C40" t="n">
-        <v>4.278630249216903e-36</v>
+        <v>3.140832972831032e-38</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>0.45</v>
       </c>
       <c r="C41" t="n">
-        <v>4.590752145370398e-32</v>
+        <v>1.749595228910314e-33</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>0.5</v>
       </c>
       <c r="C42" t="n">
-        <v>9.066317752488081e-29</v>
+        <v>1.095324993383099e-29</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>0.6</v>
       </c>
       <c r="C43" t="n">
-        <v>1.258585094456025e-23</v>
+        <v>5.666374403658607e-24</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>0.7</v>
       </c>
       <c r="C44" t="n">
-        <v>9.426703589427085e-20</v>
+        <v>7.633353324569312e-20</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>0.8</v>
       </c>
       <c r="C45" t="n">
-        <v>1.018318890387792e-16</v>
+        <v>1.081424251552764e-16</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>0.9</v>
       </c>
       <c r="C46" t="n">
-        <v>2.785879063589272e-14</v>
+        <v>3.357179054426009e-14</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>2.743822352787366e-12</v>
+        <v>3.503466259159905e-12</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>1.25</v>
       </c>
       <c r="C48" t="n">
-        <v>1.253706400610929e-08</v>
+        <v>1.664191831643291e-08</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>1.5</v>
       </c>
       <c r="C49" t="n">
-        <v>3.718615117761819e-06</v>
+        <v>4.929537917017228e-06</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>1.75</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0002213651962603142</v>
+        <v>0.0002909237621500709</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>0.004771456859910801</v>
+        <v>0.006210575205372009</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>2.5</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3503997549335854</v>
+        <v>0.4482416105564674</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>6.063032433126999</v>
+        <v>7.64946457796615</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.5</v>
       </c>
       <c r="C54" t="n">
-        <v>45.70338917419514</v>
+        <v>57.03067517150856</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>204.6695357129844</v>
+        <v>253.1183822983169</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>1607.720445086961</v>
+        <v>1961.065520110886</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="C57" t="n">
-        <v>6108.157404421996</v>
+        <v>7374.686973596446</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>15374.56844557216</v>
+        <v>18414.91980541132</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>30001.25528387708</v>
+        <v>35703.83102047742</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>9</v>
       </c>
       <c r="C60" t="n">
-        <v>49509.79880754172</v>
+        <v>58608.98142312947</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="C61" t="n">
-        <v>72776.89912643001</v>
+        <v>85769.37800273993</v>
       </c>
     </row>
   </sheetData>

--- a/TESTING/legendre_out/DATA/p1/a0/p1_rates.xlsx
+++ b/TESTING/legendre_out/DATA/p1/a0/p1_rates.xlsx
@@ -628,7 +628,7 @@
         <v>0.06</v>
       </c>
       <c r="C24" t="n">
-        <v>2.880730302048091e-282</v>
+        <v>2.849928838789915e-282</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>3.452208384016925e-241</v>
+        <v>3.40199161571325e-241</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>0.08</v>
       </c>
       <c r="C26" t="n">
-        <v>2.208489488813234e-210</v>
+        <v>2.166972932458102e-210</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>0.09</v>
       </c>
       <c r="C27" t="n">
-        <v>2.000839893894201e-186</v>
+        <v>1.955295838221925e-186</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" t="n">
-        <v>2.909678405156933e-167</v>
+        <v>2.833335898476569e-167</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>0.11</v>
       </c>
       <c r="C29" t="n">
-        <v>1.378616827409155e-151</v>
+        <v>1.338350023864546e-151</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>0.12</v>
       </c>
       <c r="C30" t="n">
-        <v>1.583836350661099e-138</v>
+        <v>1.533591246312813e-138</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>0.13</v>
       </c>
       <c r="C31" t="n">
-        <v>1.77082338941339e-127</v>
+        <v>1.710881328335833e-127</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>0.14</v>
       </c>
       <c r="C32" t="n">
-        <v>5.199468888754693e-118</v>
+        <v>5.014105062082766e-118</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>0.15</v>
       </c>
       <c r="C33" t="n">
-        <v>8.302974091065118e-110</v>
+        <v>7.994254129232046e-110</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>0.16</v>
       </c>
       <c r="C34" t="n">
-        <v>1.244912134079423e-102</v>
+        <v>1.196994509681609e-102</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>0.18</v>
       </c>
       <c r="C35" t="n">
-        <v>1.121847763123093e-90</v>
+        <v>1.07631378721701e-90</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>0.2</v>
       </c>
       <c r="C36" t="n">
-        <v>4.055127892594582e-81</v>
+        <v>3.884111995016507e-81</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>0.25</v>
       </c>
       <c r="C37" t="n">
-        <v>6.225408165057861e-64</v>
+        <v>5.946765809884922e-64</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>0.3</v>
       </c>
       <c r="C38" t="n">
-        <v>1.707762146979598e-52</v>
+        <v>1.628811166489643e-52</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>0.35</v>
       </c>
       <c r="C39" t="n">
-        <v>2.448602767667152e-44</v>
+        <v>2.333403075285941e-44</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>0.4</v>
       </c>
       <c r="C40" t="n">
-        <v>3.140832972831032e-38</v>
+        <v>2.992226142500242e-38</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>0.45</v>
       </c>
       <c r="C41" t="n">
-        <v>1.749595228910314e-33</v>
+        <v>1.667454817365857e-33</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>0.5</v>
       </c>
       <c r="C42" t="n">
-        <v>1.095324993383099e-29</v>
+        <v>1.045201914566694e-29</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>0.6</v>
       </c>
       <c r="C43" t="n">
-        <v>5.666374403658607e-24</v>
+        <v>5.438019120014404e-24</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>0.7</v>
       </c>
       <c r="C44" t="n">
-        <v>7.633353324569312e-20</v>
+        <v>7.393339278145455e-20</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>0.8</v>
       </c>
       <c r="C45" t="n">
-        <v>1.081424251552764e-16</v>
+        <v>1.057375849135228e-16</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>0.9</v>
       </c>
       <c r="C46" t="n">
-        <v>3.357179054426009e-14</v>
+        <v>3.306639422710417e-14</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>3.503466259159905e-12</v>
+        <v>3.467669779541682e-12</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>1.25</v>
       </c>
       <c r="C48" t="n">
-        <v>1.664191831643291e-08</v>
+        <v>1.656665620590658e-08</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>1.5</v>
       </c>
       <c r="C49" t="n">
-        <v>4.929537917017228e-06</v>
+        <v>4.916154116419277e-06</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>1.75</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0002909237621500709</v>
+        <v>0.0002902882116250934</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>0.006210575205372009</v>
+        <v>0.00619730639653772</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>2.5</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4482416105564674</v>
+        <v>0.4471070030731756</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>7.64946457796615</v>
+        <v>7.625826467632481</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.5</v>
       </c>
       <c r="C54" t="n">
-        <v>57.03067517150856</v>
+        <v>56.82318088277179</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>253.1183822983169</v>
+        <v>252.0721332058125</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>1961.065520110886</v>
+        <v>1951.355859975724</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="C57" t="n">
-        <v>7374.686973596446</v>
+        <v>7333.544014949589</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>18414.91980541132</v>
+        <v>18303.17171466357</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>35703.83102047742</v>
+        <v>35473.25667571644</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>9</v>
       </c>
       <c r="C60" t="n">
-        <v>58608.98142312947</v>
+        <v>58211.93955442198</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="C61" t="n">
-        <v>85769.37800273993</v>
+        <v>85165.90266510921</v>
       </c>
     </row>
   </sheetData>

--- a/TESTING/legendre_out/DATA/p1/a0/p1_rates.xlsx
+++ b/TESTING/legendre_out/DATA/p1/a0/p1_rates.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,662 +380,266 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.918538335503695e-167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0.002</v>
+        <v>0.15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002</v>
+        <v>0.15</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8.344772568994501e-110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0.003</v>
+        <v>0.2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003</v>
+        <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.078495789487448e-81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0.004</v>
+        <v>0.3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004</v>
+        <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1.718451337602742e-52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0.005</v>
+        <v>0.4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.005</v>
+        <v>0.4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3.157525185630862e-38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0.006</v>
+        <v>0.5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.006</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.096885766512023e-29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0.007</v>
+        <v>0.6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.007</v>
+        <v>0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>5.633060870510381e-24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0.008</v>
+        <v>0.7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.008</v>
+        <v>0.7</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7.526690706207961e-20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.06041408587946e-16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>0.01</v>
+        <v>0.9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01</v>
+        <v>0.9</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3.285019734961889e-14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0.011</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0.011</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3.428757459110414e-12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>0.012</v>
+        <v>1.5</v>
       </c>
       <c r="B13" t="n">
-        <v>0.012</v>
+        <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>4.859718592872867e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>0.013</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>0.013</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.006150387145232066</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>0.014</v>
+        <v>2.5</v>
       </c>
       <c r="B15" t="n">
-        <v>0.014</v>
+        <v>2.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.4449120818362757</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>0.015</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>0.015</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7.60208464011161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>0.016</v>
+        <v>3.5</v>
       </c>
       <c r="B17" t="n">
-        <v>0.016</v>
+        <v>3.5</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>56.71911396743268</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>0.018</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>0.018</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>251.853139620226</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>0.02</v>
+        <v>4.5</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>791.2855689750497</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>0.025</v>
+        <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>0.025</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1952.308492733957</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>0.03</v>
+        <v>6</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7343.849944037872</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0.04</v>
+        <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>18341.05827952425</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>0.05</v>
+        <v>8</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>35564.60278874039</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>0.06</v>
+        <v>9</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>2.849928838789915e-282</v>
+        <v>58384.97625329748</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0.07000000000000001</v>
+        <v>10</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07000000000000001</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>3.40199161571325e-241</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2.166972932458102e-210</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1.955295838221925e-186</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>2.833335898476569e-167</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1.338350023864546e-151</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1.533591246312813e-138</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1.710881328335833e-127</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="C32" t="n">
-        <v>5.014105062082766e-118</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C33" t="n">
-        <v>7.994254129232046e-110</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1.196994509681609e-102</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1.07631378721701e-90</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C36" t="n">
-        <v>3.884111995016507e-81</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C37" t="n">
-        <v>5.946765809884922e-64</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1.628811166489643e-52</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2.333403075285941e-44</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2.992226142500242e-38</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1.667454817365857e-33</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.045201914566694e-29</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C43" t="n">
-        <v>5.438019120014404e-24</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C44" t="n">
-        <v>7.393339278145455e-20</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1.057375849135228e-16</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C46" t="n">
-        <v>3.306639422710417e-14</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>3.467669779541682e-12</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1.656665620590658e-08</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C49" t="n">
-        <v>4.916154116419277e-06</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.0002902882116250934</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B51" t="n">
-        <v>2</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.00619730639653772</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="B52" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.4471070030731756</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B53" t="n">
-        <v>3</v>
-      </c>
-      <c r="C53" t="n">
-        <v>7.625826467632481</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="B54" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C54" t="n">
-        <v>56.82318088277179</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" t="n">
-        <v>4</v>
-      </c>
-      <c r="C55" t="n">
-        <v>252.0721332058125</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B56" t="n">
-        <v>5</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1951.355859975724</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B57" t="n">
-        <v>6</v>
-      </c>
-      <c r="C57" t="n">
-        <v>7333.544014949589</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B58" t="n">
-        <v>7</v>
-      </c>
-      <c r="C58" t="n">
-        <v>18303.17171466357</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B59" t="n">
-        <v>8</v>
-      </c>
-      <c r="C59" t="n">
-        <v>35473.25667571644</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B60" t="n">
-        <v>9</v>
-      </c>
-      <c r="C60" t="n">
-        <v>58211.93955442198</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B61" t="n">
-        <v>10</v>
-      </c>
-      <c r="C61" t="n">
-        <v>85165.90266510921</v>
+        <v>85446.41344275868</v>
       </c>
     </row>
   </sheetData>

--- a/TESTING/legendre_out/DATA/p1/a0/p1_rates.xlsx
+++ b/TESTING/legendre_out/DATA/p1/a0/p1_rates.xlsx
@@ -386,7 +386,7 @@
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.918538335503695e-167</v>
+        <v>5.824104109296439e-183</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>0.15</v>
       </c>
       <c r="C3" t="n">
-        <v>8.344772568994501e-110</v>
+        <v>5.080075758867063e-120</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>4.078495789487448e-81</v>
+        <v>1.843215362471977e-88</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>1.718451337602742e-52</v>
+        <v>8.426730977173055e-57</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>0.4</v>
       </c>
       <c r="C6" t="n">
-        <v>3.157525185630862e-38</v>
+        <v>5.903337790734004e-41</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>1.096885766512023e-29</v>
+        <v>1.861884469715326e-31</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>5.633060870510381e-24</v>
+        <v>3.917632239943843e-25</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>0.7</v>
       </c>
       <c r="C9" t="n">
-        <v>7.526690706207961e-20</v>
+        <v>1.264201614635715e-20</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>1.06041408587946e-16</v>
+        <v>3.00410225640711e-17</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>0.9</v>
       </c>
       <c r="C11" t="n">
-        <v>3.285019734961889e-14</v>
+        <v>1.257165848585476e-14</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.428757459110414e-12</v>
+        <v>1.563126737402483e-12</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>4.859718592872867e-06</v>
+        <v>2.909405936112637e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006150387145232066</v>
+        <v>0.003894231609327487</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>2.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4449120818362757</v>
+        <v>0.2877376984619827</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>7.60208464011161</v>
+        <v>4.968723488270929</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.5</v>
       </c>
       <c r="C17" t="n">
-        <v>56.71911396743268</v>
+        <v>37.29980745345683</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>251.853139620226</v>
+        <v>166.2764318369808</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>4.5</v>
       </c>
       <c r="C19" t="n">
-        <v>791.2855689750497</v>
+        <v>523.8252230489966</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>1952.308492733957</v>
+        <v>1294.928063664615</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>7343.849944037872</v>
+        <v>4883.654670702894</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>18341.05827952425</v>
+        <v>12216.62547411796</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>35564.60278874039</v>
+        <v>23715.08260662885</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>58384.97625329748</v>
+        <v>38963.07231158338</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>85446.41344275868</v>
+        <v>57056.54659678342</v>
       </c>
     </row>
   </sheetData>
